--- a/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="7"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -276,7 +276,7 @@
     <t>CD时通知安全</t>
   </si>
   <si>
-    <t>完整性检查</t>
+    <t>完整性检查（微服务特性，服务间的依赖关系，小的改动容易忘）</t>
   </si>
   <si>
     <t>版本检查</t>
@@ -1955,8 +1955,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="28" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>82</v>
       </c>
@@ -2634,7 +2634,7 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -1504,13 +1504,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="32.2727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="16.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="21.7314814814815" customWidth="1"/>
+    <col min="3" max="3" width="32.2685185185185" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.2685185185185" customWidth="1"/>
+    <col min="5" max="5" width="16.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -1527,7 +1527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="56" spans="1:4">
+    <row r="2" customFormat="1" ht="57.6" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="28" spans="1:3">
+    <row r="3" customFormat="1" ht="28.8" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:3">
+    <row r="4" ht="28.8" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="28" spans="1:3">
+    <row r="5" customFormat="1" ht="28.8" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:3">
+    <row r="6" ht="28.8" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:3">
+    <row r="7" ht="28.8" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>9</v>
@@ -1594,7 +1594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="1:3">
+    <row r="8" ht="43.2" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="1:3">
+    <row r="9" ht="43.2" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:3">
+    <row r="10" ht="28.8" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:3">
+    <row r="11" ht="28.8" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:3">
+    <row r="12" ht="28.8" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1687,13 +1687,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="37.4545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="17.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="19.3611111111111" customWidth="1"/>
+    <col min="2" max="2" width="37.4537037037037" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5462962962963" customWidth="1"/>
+    <col min="4" max="4" width="19.8148148148148" customWidth="1"/>
+    <col min="5" max="5" width="17.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1713,7 +1713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="84" spans="1:5">
+    <row r="2" ht="86.4" spans="1:5">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="2:4">
+    <row r="8" ht="43.2" spans="2:4">
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1810,11 +1810,11 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.5545454545455" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.1090909090909" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="18.5555555555556" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1831,7 +1831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="42" spans="1:4">
+    <row r="2" ht="43.2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -1900,12 +1900,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="22.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="16.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="18.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="22.2685185185185" customWidth="1"/>
+    <col min="3" max="3" width="16.5462962962963" customWidth="1"/>
+    <col min="4" max="4" width="18.1851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1922,7 +1922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="70" spans="1:4">
+    <row r="2" ht="72" spans="1:4">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" ht="84" spans="3:4">
+    <row r="3" ht="86.4" spans="3:4">
       <c r="C3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1955,17 +1955,17 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.2727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.2685185185185" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.6363636363636" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.6388888888889" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -2004,7 +2004,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="28" spans="1:5">
+    <row r="3" customFormat="1" ht="28.8" spans="1:5">
       <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>76</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" customFormat="1" ht="168" spans="1:5">
+    <row r="4" customFormat="1" ht="172.8" spans="1:5">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>76</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>82</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="84" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="86.4" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>83</v>
@@ -2114,7 +2114,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:4">
+    <row r="18" ht="28.8" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
@@ -2178,13 +2178,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.3636363636364" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.2181818181818" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.9090909090909" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.3611111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.3611111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.9074074074074" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -2206,7 +2206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="28" spans="1:5">
+    <row r="2" customFormat="1" ht="28.8" spans="1:5">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2474,13 +2474,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="24.3636363636364" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1851851851852" customWidth="1"/>
+    <col min="2" max="2" width="24.3611111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="16.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="22.1851851851852" customWidth="1"/>
+    <col min="5" max="5" width="16.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
@@ -2638,12 +2638,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="16.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="13.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="13.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="16.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="16.0925925925926" customWidth="1"/>
+    <col min="3" max="3" width="13.3611111111111" customWidth="1"/>
+    <col min="4" max="4" width="13.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -2699,7 +2699,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="2:2">
+    <row r="12" ht="28.8" spans="2:2">
       <c r="B12" s="3" t="s">
         <v>134</v>
       </c>
@@ -2741,15 +2741,15 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="31.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="25.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="14.6388888888889" customWidth="1"/>
+    <col min="2" max="2" width="31.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="25.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="8"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <t>合规审计</t>
   </si>
   <si>
-    <t>发布审计</t>
+    <t>发布系统及发布审计</t>
   </si>
   <si>
     <t>运营阶段</t>
@@ -390,7 +390,7 @@
     <t>传输数据加密</t>
   </si>
   <si>
-    <t>反调试</t>
+    <t>反调试、混淆、加密等</t>
   </si>
   <si>
     <t>安全架构</t>
@@ -1130,15 +1130,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1504,13 +1504,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.7314814814815" customWidth="1"/>
-    <col min="3" max="3" width="32.2685185185185" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.2685185185185" customWidth="1"/>
-    <col min="5" max="5" width="16.3611111111111" customWidth="1"/>
+    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="32.2727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="16.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -1527,7 +1527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="57.6" spans="1:4">
+    <row r="2" customFormat="1" ht="56" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="28.8" spans="1:3">
+    <row r="3" customFormat="1" ht="28" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:3">
+    <row r="4" ht="28" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="28.8" spans="1:3">
+    <row r="5" customFormat="1" ht="28" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:3">
+    <row r="6" ht="28" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:3">
+    <row r="7" ht="28" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>9</v>
@@ -1594,7 +1594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="1:3">
+    <row r="8" ht="42" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:3">
+    <row r="9" ht="42" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:3">
+    <row r="10" ht="28" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:3">
+    <row r="11" ht="28" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:3">
+    <row r="12" ht="28" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1684,16 +1684,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.3611111111111" customWidth="1"/>
-    <col min="2" max="2" width="37.4537037037037" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5462962962963" customWidth="1"/>
-    <col min="4" max="4" width="19.8148148148148" customWidth="1"/>
-    <col min="5" max="5" width="17.0925925925926" customWidth="1"/>
+    <col min="1" max="1" width="19.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="37.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="17.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1713,7 +1713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="86.4" spans="1:5">
+    <row r="2" ht="84" spans="1:5">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="2:4">
+    <row r="8" ht="42" spans="2:4">
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1807,14 +1807,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.5555555555556" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
+    <col min="1" max="1" width="18.5545454545455" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1090909090909" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1831,7 +1831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:4">
+    <row r="2" ht="42" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -1900,12 +1900,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="22.2685185185185" customWidth="1"/>
-    <col min="3" max="3" width="16.5462962962963" customWidth="1"/>
-    <col min="4" max="4" width="18.1851851851852" customWidth="1"/>
+    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="22.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="16.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="18.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1922,7 +1922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="72" spans="1:4">
+    <row r="2" ht="70" spans="1:4">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="3:4">
+    <row r="3" ht="84" spans="3:4">
       <c r="C3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1955,17 +1955,17 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.2685185185185" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.0909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.2727272727273" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.6388888888889" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.6363636363636" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -2004,7 +2004,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="28.8" spans="1:5">
+    <row r="3" customFormat="1" ht="28" spans="1:5">
       <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>76</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" customFormat="1" ht="172.8" spans="1:5">
+    <row r="4" customFormat="1" ht="168" spans="1:5">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>76</v>
@@ -2026,8 +2026,8 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:6">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="1" customFormat="1" ht="28" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2043,7 +2043,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -2066,8 +2066,8 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="86.4" spans="1:6">
-      <c r="A8" s="4"/>
+    <row r="8" s="1" customFormat="1" ht="84" spans="1:6">
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
@@ -2079,14 +2079,14 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="4"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2100,7 +2100,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="3" t="s">
@@ -2114,8 +2114,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:4">
-      <c r="A18" s="4" t="s">
+    <row r="18" ht="28" spans="1:4">
+      <c r="A18" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2129,7 +2129,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>98</v>
       </c>
@@ -2141,13 +2141,13 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6"/>
       <c r="D20" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="D21" s="3" t="s">
         <v>102</v>
       </c>
@@ -2175,16 +2175,16 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.3611111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.2222222222222" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.9074074074074" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.3636363636364" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.2181818181818" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.9090909090909" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -2206,7 +2206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="28.8" spans="1:5">
+    <row r="2" customFormat="1" ht="28" spans="1:5">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2290,82 +2290,82 @@
       <c r="E12" s="3"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="4"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="4"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:6">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:6">
-      <c r="B20" s="4"/>
+      <c r="B20" s="6"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:6">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="1" spans="2:6">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" s="7" customFormat="1" spans="4:4">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="4:4">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" s="7" customFormat="1" spans="4:4">
+    <row r="31" s="4" customFormat="1" spans="4:4">
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:9">
@@ -2374,82 +2374,82 @@
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="3:6">
-      <c r="C39" s="4"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="3:6">
-      <c r="C40" s="4"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="3:6">
-      <c r="C41" s="4"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="3:6">
-      <c r="C42" s="4"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="3:6">
-      <c r="C43" s="4"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="3:6">
-      <c r="C44" s="4"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="3:6">
-      <c r="C45" s="4"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="3:6">
-      <c r="C46" s="4"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="4"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48"/>
-      <c r="C48" s="4"/>
+      <c r="C48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2471,16 +2471,16 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.1851851851852" customWidth="1"/>
-    <col min="2" max="2" width="24.3611111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="24.3636363636364" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.1851851851852" customWidth="1"/>
-    <col min="5" max="5" width="16.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="22.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="16.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
@@ -2580,45 +2580,44 @@
       <c r="B15" s="4"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B13:B15"/>
+  <mergeCells count="4">
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
@@ -2634,16 +2633,16 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.4537037037037" customWidth="1"/>
-    <col min="2" max="2" width="16.0925925925926" customWidth="1"/>
-    <col min="3" max="3" width="13.3611111111111" customWidth="1"/>
-    <col min="4" max="4" width="13.8148148148148" customWidth="1"/>
+    <col min="1" max="1" width="16.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="16.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="13.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="13.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -2699,7 +2698,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="2:2">
+    <row r="12" ht="28" spans="2:2">
       <c r="B12" s="3" t="s">
         <v>134</v>
       </c>
@@ -2741,15 +2740,15 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.6388888888889" customWidth="1"/>
-    <col min="2" max="2" width="31.5462962962963" customWidth="1"/>
-    <col min="3" max="3" width="25.2685185185185" customWidth="1"/>
+    <col min="1" max="1" width="14.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="31.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="25.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="7"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -1500,8 +1500,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1807,7 +1807,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1815,6 +1815,7 @@
     <col min="1" max="1" width="18.5545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.1090909090909" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="21.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2471,7 +2472,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2633,8 +2634,8 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2698,7 +2699,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="2:2">
+    <row r="12" ht="31" customHeight="1" spans="2:2">
       <c r="B12" s="3" t="s">
         <v>134</v>
       </c>

--- a/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -1500,8 +1500,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -1500,7 +1500,7 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2741,14 +2741,14 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="31.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="35.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="25.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>

--- a/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="8"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="157">
   <si>
     <t>产品节点</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>传输数据加密</t>
+  </si>
+  <si>
+    <t>整体加密，签名加密</t>
   </si>
   <si>
     <t>反调试、混淆、加密等</t>
@@ -1501,7 +1504,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1684,7 +1687,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2471,8 +2474,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2539,12 +2542,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2552,22 +2558,22 @@
         <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -2663,70 +2669,70 @@
     <row r="2" customFormat="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" ht="31" customHeight="1" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +2747,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2754,62 +2760,62 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="161">
   <si>
     <t>产品节点</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>SDL系统应设置后台功能可添加功能模块或安全需求条目</t>
+  </si>
+  <si>
+    <t>数据安全需求</t>
+  </si>
+  <si>
+    <t>分类分级，安全加密</t>
+  </si>
+  <si>
+    <t>架构需求</t>
+  </si>
+  <si>
+    <t>安全架构，应用的基础架构的安全</t>
   </si>
   <si>
     <t>阶段</t>
@@ -1898,13 +1910,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
     <col min="2" max="2" width="22.2727272727273" customWidth="1"/>
@@ -1946,6 +1958,22 @@
       </c>
       <c r="D3" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +2004,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1993,55 +2021,55 @@
     </row>
     <row r="2" customFormat="1" ht="46" customHeight="1" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="28" spans="1:5">
       <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="1" ht="168" spans="1:5">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2049,11 +2077,11 @@
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2061,11 +2089,11 @@
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2073,11 +2101,11 @@
     <row r="8" s="1" customFormat="1" ht="84" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2091,16 +2119,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2108,52 +2136,52 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" ht="28" spans="1:4">
       <c r="A18" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6"/>
       <c r="D20" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6"/>
       <c r="D21" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2223,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2212,40 +2240,40 @@
     </row>
     <row r="2" customFormat="1" ht="28" spans="1:5">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:5">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="1" spans="1:5">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2474,7 +2502,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2489,7 +2517,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2506,74 +2534,74 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -2669,70 +2697,70 @@
     <row r="2" customFormat="1"/>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="31" customHeight="1" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2760,62 +2788,62 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
+++ b/1.原创-应用安全/2.应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -1516,16 +1516,16 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="32.2727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="16.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="21.7314814814815" customWidth="1"/>
+    <col min="3" max="3" width="32.2685185185185" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.2685185185185" customWidth="1"/>
+    <col min="5" max="5" width="16.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -1542,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="56" spans="1:4">
+    <row r="2" customFormat="1" ht="57.6" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="28" spans="1:3">
+    <row r="3" customFormat="1" ht="28.8" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:3">
+    <row r="4" ht="28.8" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="28" spans="1:3">
+    <row r="5" customFormat="1" ht="28.8" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:3">
+    <row r="6" ht="28.8" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:3">
+    <row r="7" ht="28.8" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>9</v>
@@ -1609,7 +1609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="1:3">
+    <row r="8" ht="43.2" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="1:3">
+    <row r="9" ht="43.2" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:3">
+    <row r="10" ht="28.8" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:3">
+    <row r="11" ht="28.8" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:3">
+    <row r="12" ht="28.8" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1699,16 +1699,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="37.4545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="19.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="17.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="19.3611111111111" customWidth="1"/>
+    <col min="2" max="2" width="37.4537037037037" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5462962962963" customWidth="1"/>
+    <col min="4" max="4" width="19.8148148148148" customWidth="1"/>
+    <col min="5" max="5" width="17.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1728,7 +1728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="84" spans="1:5">
+    <row r="2" ht="86.4" spans="1:5">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="2:4">
+    <row r="8" ht="43.2" spans="2:4">
       <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1822,15 +1822,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.5545454545455" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.1090909090909" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="21.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="18.5555555555556" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="21.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1847,7 +1847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="42" spans="1:4">
+    <row r="2" ht="43.2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -1912,16 +1912,16 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="22.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="16.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="18.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="22.2685185185185" customWidth="1"/>
+    <col min="3" max="3" width="16.5462962962963" customWidth="1"/>
+    <col min="4" max="4" width="18.1851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1938,7 +1938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="70" spans="1:4">
+    <row r="2" ht="72" spans="1:4">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" ht="84" spans="3:4">
+    <row r="3" ht="86.4" spans="3:4">
       <c r="C3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1987,17 +1987,17 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.0909090909091" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.2727272727273" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.0925925925926" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.2685185185185" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.6363636363636" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.6388888888889" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -2036,7 +2036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="28" spans="1:5">
+    <row r="3" customFormat="1" ht="28.8" spans="1:5">
       <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>80</v>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" customFormat="1" ht="168" spans="1:5">
+    <row r="4" customFormat="1" ht="172.8" spans="1:5">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>80</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>86</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="84" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="86.4" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>87</v>
@@ -2146,7 +2146,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:4">
+    <row r="18" ht="28.8" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
@@ -2210,13 +2210,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.3636363636364" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.2181818181818" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.9090909090909" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.3611111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.3611111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.9074074074074" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -2238,7 +2238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="28" spans="1:5">
+    <row r="2" customFormat="1" ht="28.8" spans="1:5">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -2506,13 +2506,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="24.3636363636364" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1851851851852" customWidth="1"/>
+    <col min="2" max="2" width="24.3611111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="16.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="22.1851851851852" customWidth="1"/>
+    <col min="5" max="5" width="16.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
@@ -2672,12 +2672,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="16.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="13.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="13.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="16.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="16.0925925925926" customWidth="1"/>
+    <col min="3" max="3" width="13.3611111111111" customWidth="1"/>
+    <col min="4" max="4" width="13.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
@@ -2779,11 +2779,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="35.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="25.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="14.6388888888889" customWidth="1"/>
+    <col min="2" max="2" width="35.2685185185185" customWidth="1"/>
+    <col min="3" max="3" width="25.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
